--- a/data/label/2.xlsx
+++ b/data/label/2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuling31715/code/doccano/data/label/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3985890-298C-EF41-B16D-A65979FE0533}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4827AED-D910-9E4F-BB17-D9C6CD08C17D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{048BBCD9-DDA3-0B4D-8DB9-1C8DAEED0A0F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{048BBCD9-DDA3-0B4D-8DB9-1C8DAEED0A0F}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>entities</t>
+    <t>labels</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -415,7 +415,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
